--- a/Esterni/PianoDiProgetto/fileExcel.xlsx
+++ b/Esterni/PianoDiProgetto/fileExcel.xlsx
@@ -1,31 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/biancaciuche/ProgettoSWEDocumentazione/Esterni/PianoDiProgetto/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matteo\Desktop\ZeroSeven\ProgettoSWEDocumentazione\Esterni\PianoDiProgetto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BC57399-D1D2-7143-A2B6-5748E2A74518}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39576F42-C0B3-4D9E-8EF3-11C7AE318D41}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4780" yWindow="760" windowWidth="21420" windowHeight="15540" xr2:uid="{91D0A290-4AC5-3F40-8EB7-44DFE5407311}"/>
+    <workbookView xWindow="4776" yWindow="756" windowWidth="21420" windowHeight="15540" xr2:uid="{91D0A290-4AC5-3F40-8EB7-44DFE5407311}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="36">
   <si>
     <t>Nome</t>
   </si>
@@ -106,9 +112,6 @@
   </si>
   <si>
     <t>Ore totali ruolo</t>
-  </si>
-  <si>
-    <t>Ore totali</t>
   </si>
   <si>
     <t>Analisi dei requisiti in dettaglio</t>
@@ -2733,7 +2736,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1307356335"/>
@@ -2793,7 +2796,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1307393023"/>
@@ -2843,7 +2846,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2873,7 +2876,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3135,7 +3138,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="it-IT"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -3378,7 +3381,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="it-IT"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -3509,7 +3512,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4135,7 +4138,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1373484687"/>
@@ -4194,7 +4197,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1373137167"/>
@@ -4236,7 +4239,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4273,7 +4276,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4478,7 +4481,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="it-IT"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
               <c:showLegendKey val="0"/>
@@ -4590,7 +4593,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="it-IT"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -4850,7 +4853,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="it-IT"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -4984,7 +4987,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5610,7 +5613,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1371404351"/>
@@ -5669,7 +5672,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1341894079"/>
@@ -5711,7 +5714,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5741,7 +5744,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6022,7 +6025,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="it-IT"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -6268,7 +6271,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="it-IT"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -6402,7 +6405,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6690,7 +6693,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="it-IT"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -6936,7 +6939,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="it-IT"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -7070,7 +7073,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7697,7 +7700,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1339571615"/>
@@ -7757,7 +7760,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1337458207"/>
@@ -7807,7 +7810,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -7837,7 +7840,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8064,7 +8067,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="it-IT"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
               <c:showLegendKey val="0"/>
@@ -8175,7 +8178,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="it-IT"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -8421,7 +8424,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="it-IT"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -8555,7 +8558,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -9112,7 +9115,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1340823151"/>
@@ -9172,7 +9175,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1340547871"/>
@@ -9214,7 +9217,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -9244,7 +9247,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -9483,7 +9486,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="it-IT"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -9743,7 +9746,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="it-IT"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -9877,7 +9880,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -10452,7 +10455,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1336774463"/>
@@ -10511,7 +10514,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1340163471"/>
@@ -10553,7 +10556,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -10583,7 +10586,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -10843,7 +10846,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="it-IT"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -11103,7 +11106,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="it-IT"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -11237,7 +11240,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -11863,7 +11866,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1373092639"/>
@@ -11922,7 +11925,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1373087999"/>
@@ -11964,7 +11967,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -11994,7 +11997,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -20723,26 +20726,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{969318DE-3F76-F04F-8210-53F47E738A81}">
   <dimension ref="A1:V90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScaleNormal="116" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54:H62"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="116" workbookViewId="0">
+      <selection activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="18.1640625" customWidth="1"/>
-    <col min="2" max="7" width="4.83203125" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" customWidth="1"/>
-    <col min="10" max="10" width="15.6640625" customWidth="1"/>
-    <col min="11" max="11" width="13.1640625" customWidth="1"/>
+    <col min="1" max="1" width="18.19921875" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.69921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.09765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.296875" customWidth="1"/>
+    <col min="10" max="10" width="15.69921875" customWidth="1"/>
+    <col min="11" max="11" width="13.19921875" customWidth="1"/>
     <col min="17" max="17" width="18" customWidth="1"/>
-    <col min="18" max="18" width="15.1640625" customWidth="1"/>
-    <col min="19" max="19" width="14.33203125" customWidth="1"/>
-    <col min="20" max="20" width="23.33203125" customWidth="1"/>
-    <col min="21" max="21" width="11.33203125" customWidth="1"/>
-    <col min="22" max="22" width="17.83203125" customWidth="1"/>
+    <col min="18" max="18" width="15.19921875" customWidth="1"/>
+    <col min="19" max="19" width="14.296875" customWidth="1"/>
+    <col min="20" max="20" width="23.296875" customWidth="1"/>
+    <col min="21" max="21" width="11.296875" customWidth="1"/>
+    <col min="22" max="22" width="17.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="20" customHeight="1">
+    <row r="1" spans="1:22" ht="19.95" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -20780,7 +20788,7 @@
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
     </row>
-    <row r="2" spans="1:22" ht="20" customHeight="1">
+    <row r="2" spans="1:22" ht="19.95" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -20824,7 +20832,7 @@
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
     </row>
-    <row r="3" spans="1:22" ht="20" customHeight="1">
+    <row r="3" spans="1:22" ht="19.95" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -20868,7 +20876,7 @@
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
     </row>
-    <row r="4" spans="1:22" ht="20" customHeight="1">
+    <row r="4" spans="1:22" ht="19.95" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -20912,7 +20920,7 @@
       <c r="U4" s="2"/>
       <c r="V4" s="4"/>
     </row>
-    <row r="5" spans="1:22" ht="20" customHeight="1">
+    <row r="5" spans="1:22" ht="19.95" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -20954,7 +20962,7 @@
       <c r="U5" s="2"/>
       <c r="V5" s="4"/>
     </row>
-    <row r="6" spans="1:22" ht="20" customHeight="1">
+    <row r="6" spans="1:22" ht="19.95" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -20996,7 +21004,7 @@
       <c r="U6" s="2"/>
       <c r="V6" s="2"/>
     </row>
-    <row r="7" spans="1:22" ht="20" customHeight="1">
+    <row r="7" spans="1:22" ht="19.95" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -21040,7 +21048,7 @@
       <c r="U7" s="2"/>
       <c r="V7" s="2"/>
     </row>
-    <row r="8" spans="1:22" ht="20" customHeight="1">
+    <row r="8" spans="1:22" ht="19.95" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -21067,7 +21075,7 @@
         <v>24</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="K8" s="1">
         <v>175</v>
@@ -21082,7 +21090,7 @@
       <c r="U8" s="2"/>
       <c r="V8" s="2"/>
     </row>
-    <row r="9" spans="1:22" ht="20" customHeight="1">
+    <row r="9" spans="1:22" ht="19.95" customHeight="1">
       <c r="A9" s="7" t="s">
         <v>26</v>
       </c>
@@ -21118,10 +21126,10 @@
     </row>
     <row r="12" spans="1:22">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="19" customHeight="1">
+    <row r="13" spans="1:22" ht="19.05" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -21129,13 +21137,13 @@
         <v>23</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>1</v>
@@ -21157,24 +21165,24 @@
       </c>
       <c r="S13" s="2"/>
     </row>
-    <row r="14" spans="1:22" ht="23" customHeight="1">
+    <row r="14" spans="1:22" ht="22.95" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C14" s="1">
         <v>3</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G14" s="1">
         <v>2</v>
@@ -21197,7 +21205,7 @@
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
     </row>
-    <row r="15" spans="1:22" ht="20" customHeight="1">
+    <row r="15" spans="1:22" ht="19.95" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>3</v>
       </c>
@@ -21205,19 +21213,19 @@
         <v>5</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H15" s="1">
         <f>SUM(Tabella1[[#This Row],[Re]:[Ve]])</f>
@@ -21241,24 +21249,24 @@
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
     </row>
-    <row r="16" spans="1:22" ht="20" customHeight="1">
+    <row r="16" spans="1:22" ht="19.95" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D16" s="1">
         <v>2</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G16" s="1">
         <v>3</v>
@@ -21285,24 +21293,24 @@
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
     </row>
-    <row r="17" spans="1:22" ht="20" customHeight="1">
+    <row r="17" spans="1:22" ht="19.95" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D17" s="1">
         <v>2</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G17" s="1">
         <v>3</v>
@@ -21315,10 +21323,10 @@
         <v>15</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
@@ -21327,24 +21335,24 @@
       <c r="U17" s="1"/>
       <c r="V17" s="1"/>
     </row>
-    <row r="18" spans="1:22" ht="20" customHeight="1">
+    <row r="18" spans="1:22" ht="19.95" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D18" s="1">
         <v>3</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G18" s="1">
         <v>2</v>
@@ -21357,10 +21365,10 @@
         <v>16</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
@@ -21369,24 +21377,24 @@
       <c r="U18" s="1"/>
       <c r="V18" s="1"/>
     </row>
-    <row r="19" spans="1:22" ht="20" customHeight="1">
+    <row r="19" spans="1:22" ht="19.95" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C19" s="1">
         <v>2</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G19" s="1">
         <v>3</v>
@@ -21412,24 +21420,24 @@
       <c r="U19" s="1"/>
       <c r="V19" s="1"/>
     </row>
-    <row r="20" spans="1:22" ht="20" customHeight="1">
+    <row r="20" spans="1:22" ht="19.95" customHeight="1">
       <c r="A20" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D20" s="1">
         <v>2</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G20" s="1">
         <v>3</v>
@@ -21439,7 +21447,7 @@
         <v>5</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="K20" s="1">
         <f>SUM(K14:K19)</f>
@@ -21456,7 +21464,7 @@
       <c r="U20" s="1"/>
       <c r="V20" s="1"/>
     </row>
-    <row r="21" spans="1:22" ht="20" customHeight="1">
+    <row r="21" spans="1:22" ht="19.95" customHeight="1">
       <c r="A21" s="7" t="s">
         <v>26</v>
       </c>
@@ -21472,10 +21480,10 @@
         <v>9</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G21" s="1">
         <f>SUM(G14:G20)</f>
@@ -21491,9 +21499,9 @@
       <c r="U21" s="1"/>
       <c r="V21" s="1"/>
     </row>
-    <row r="22" spans="1:22" ht="20" customHeight="1">
+    <row r="22" spans="1:22" ht="19.95" customHeight="1">
       <c r="J22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
@@ -21504,7 +21512,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:22" ht="20" customHeight="1">
+    <row r="26" spans="1:22" ht="19.95" customHeight="1">
       <c r="A26" s="1" t="s">
         <v>0</v>
       </c>
@@ -21539,7 +21547,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:22" ht="20" customHeight="1">
+    <row r="27" spans="1:22" ht="19.95" customHeight="1">
       <c r="A27" s="1" t="s">
         <v>2</v>
       </c>
@@ -21573,7 +21581,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="28" spans="1:22" ht="20" customHeight="1">
+    <row r="28" spans="1:22" ht="19.95" customHeight="1">
       <c r="A28" s="1" t="s">
         <v>3</v>
       </c>
@@ -21608,7 +21616,7 @@
       <c r="R28" s="2"/>
       <c r="S28" s="2"/>
     </row>
-    <row r="29" spans="1:22" ht="20" customHeight="1">
+    <row r="29" spans="1:22" ht="19.95" customHeight="1">
       <c r="A29" s="1" t="s">
         <v>4</v>
       </c>
@@ -21641,7 +21649,7 @@
       <c r="R29" s="2"/>
       <c r="S29" s="2"/>
     </row>
-    <row r="30" spans="1:22" ht="20" customHeight="1">
+    <row r="30" spans="1:22" ht="19.95" customHeight="1">
       <c r="A30" s="1" t="s">
         <v>5</v>
       </c>
@@ -21676,7 +21684,7 @@
       <c r="R30" s="2"/>
       <c r="S30" s="2"/>
     </row>
-    <row r="31" spans="1:22" ht="20" customHeight="1">
+    <row r="31" spans="1:22" ht="19.95" customHeight="1">
       <c r="A31" s="1" t="s">
         <v>6</v>
       </c>
@@ -21711,7 +21719,7 @@
       <c r="R31" s="2"/>
       <c r="S31" s="2"/>
     </row>
-    <row r="32" spans="1:22" ht="20" customHeight="1">
+    <row r="32" spans="1:22" ht="19.95" customHeight="1">
       <c r="A32" s="1" t="s">
         <v>7</v>
       </c>
@@ -21744,7 +21752,7 @@
       <c r="R32" s="2"/>
       <c r="S32" s="4"/>
     </row>
-    <row r="33" spans="1:19" ht="20" customHeight="1">
+    <row r="33" spans="1:19" ht="19.95" customHeight="1">
       <c r="A33" s="1" t="s">
         <v>8</v>
       </c>
@@ -21763,7 +21771,7 @@
         <v>27</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="K33" s="1">
         <f>SUM(K27:K32)</f>
@@ -21777,7 +21785,7 @@
       <c r="R33" s="2"/>
       <c r="S33" s="2"/>
     </row>
-    <row r="34" spans="1:19" ht="20" customHeight="1">
+    <row r="34" spans="1:19" ht="19.95" customHeight="1">
       <c r="A34" s="7" t="s">
         <v>26</v>
       </c>
@@ -21813,7 +21821,7 @@
       <c r="R34" s="2"/>
       <c r="S34" s="2"/>
     </row>
-    <row r="35" spans="1:19" ht="20" customHeight="1">
+    <row r="35" spans="1:19" ht="19.95" customHeight="1">
       <c r="A35" s="7"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -21826,20 +21834,20 @@
       <c r="R35" s="2"/>
       <c r="S35" s="4"/>
     </row>
-    <row r="36" spans="1:19" ht="20" customHeight="1">
+    <row r="36" spans="1:19" ht="19.95" customHeight="1">
       <c r="Q36" s="2"/>
       <c r="R36" s="2"/>
       <c r="S36" s="2"/>
     </row>
     <row r="37" spans="1:19">
       <c r="A37" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" s="2"/>
       <c r="S37" s="2"/>
     </row>
-    <row r="38" spans="1:19" ht="20" customHeight="1">
+    <row r="38" spans="1:19" ht="19.95" customHeight="1">
       <c r="A38" s="1" t="s">
         <v>0</v>
       </c>
@@ -21877,7 +21885,7 @@
       <c r="R38" s="2"/>
       <c r="S38" s="2"/>
     </row>
-    <row r="39" spans="1:19" ht="20" customHeight="1">
+    <row r="39" spans="1:19" ht="19.95" customHeight="1">
       <c r="A39" s="1" t="s">
         <v>2</v>
       </c>
@@ -21909,7 +21917,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="40" spans="1:19" ht="20" customHeight="1">
+    <row r="40" spans="1:19" ht="19.95" customHeight="1">
       <c r="A40" s="1" t="s">
         <v>3</v>
       </c>
@@ -21943,7 +21951,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="41" spans="1:19" ht="20" customHeight="1">
+    <row r="41" spans="1:19" ht="19.95" customHeight="1">
       <c r="A41" s="1" t="s">
         <v>4</v>
       </c>
@@ -21977,7 +21985,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="42" spans="1:19" ht="20" customHeight="1">
+    <row r="42" spans="1:19" ht="19.95" customHeight="1">
       <c r="A42" s="1" t="s">
         <v>5</v>
       </c>
@@ -22009,7 +22017,7 @@
         <v>2574</v>
       </c>
     </row>
-    <row r="43" spans="1:19" ht="20" customHeight="1">
+    <row r="43" spans="1:19" ht="19.95" customHeight="1">
       <c r="A43" s="1" t="s">
         <v>6</v>
       </c>
@@ -22046,7 +22054,7 @@
       <c r="R43" s="2"/>
       <c r="S43" s="2"/>
     </row>
-    <row r="44" spans="1:19" ht="20" customHeight="1">
+    <row r="44" spans="1:19" ht="19.95" customHeight="1">
       <c r="A44" s="1" t="s">
         <v>7</v>
       </c>
@@ -22083,7 +22091,7 @@
       <c r="R44" s="2"/>
       <c r="S44" s="2"/>
     </row>
-    <row r="45" spans="1:19" ht="20" customHeight="1">
+    <row r="45" spans="1:19" ht="19.95" customHeight="1">
       <c r="A45" s="1" t="s">
         <v>8</v>
       </c>
@@ -22104,7 +22112,7 @@
         <v>53</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="K45" s="1">
         <f>SUM(K39:K44)</f>
@@ -22118,7 +22126,7 @@
       <c r="R45" s="2"/>
       <c r="S45" s="2"/>
     </row>
-    <row r="46" spans="1:19" ht="20" customHeight="1">
+    <row r="46" spans="1:19" ht="19.95" customHeight="1">
       <c r="A46" s="7" t="s">
         <v>26</v>
       </c>
@@ -22225,10 +22233,10 @@
     </row>
     <row r="53" spans="1:19">
       <c r="A53" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
-    <row r="54" spans="1:19" ht="20" customHeight="1">
+    <row r="54" spans="1:19" ht="19.95" customHeight="1">
       <c r="A54" s="1" t="s">
         <v>0</v>
       </c>
@@ -22236,13 +22244,13 @@
         <v>23</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>1</v>
@@ -22263,24 +22271,24 @@
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="1:19" ht="20" customHeight="1">
+    <row r="55" spans="1:19" ht="19.95" customHeight="1">
       <c r="A55" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E55" s="1">
         <v>9</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G55" s="1">
         <v>12</v>
@@ -22300,24 +22308,24 @@
         <v>360</v>
       </c>
     </row>
-    <row r="56" spans="1:19" ht="20" customHeight="1">
+    <row r="56" spans="1:19" ht="19.95" customHeight="1">
       <c r="A56" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E56" s="1">
         <v>12</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G56" s="1">
         <v>9</v>
@@ -22338,24 +22346,24 @@
         <v>420</v>
       </c>
     </row>
-    <row r="57" spans="1:19" ht="20" customHeight="1">
+    <row r="57" spans="1:19" ht="19.95" customHeight="1">
       <c r="A57" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C57" s="1">
         <v>8</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G57" s="1">
         <v>13</v>
@@ -22370,7 +22378,7 @@
       <c r="K57" s="1"/>
       <c r="L57" s="8"/>
     </row>
-    <row r="58" spans="1:19" ht="20" customHeight="1">
+    <row r="58" spans="1:19" ht="19.95" customHeight="1">
       <c r="A58" s="1" t="s">
         <v>5</v>
       </c>
@@ -22378,16 +22386,16 @@
         <v>6</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G58" s="1">
         <v>14</v>
@@ -22411,24 +22419,24 @@
       <c r="R58" s="2"/>
       <c r="S58" s="2"/>
     </row>
-    <row r="59" spans="1:19" ht="20" customHeight="1">
+    <row r="59" spans="1:19" ht="19.95" customHeight="1">
       <c r="A59" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C59" s="1">
         <v>9</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G59" s="1">
         <v>13</v>
@@ -22452,7 +22460,7 @@
       <c r="R59" s="2"/>
       <c r="S59" s="2"/>
     </row>
-    <row r="60" spans="1:19" ht="20" customHeight="1">
+    <row r="60" spans="1:19" ht="19.95" customHeight="1">
       <c r="A60" s="1" t="s">
         <v>7</v>
       </c>
@@ -22460,10 +22468,10 @@
         <v>6</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E60" s="1">
         <v>3</v>
@@ -22472,7 +22480,7 @@
         <v>11</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H60" s="1">
         <f>SUM(Tabella13481034613[[#This Row],[Re]:[Ve]])</f>
@@ -22493,21 +22501,21 @@
       <c r="R60" s="2"/>
       <c r="S60" s="2"/>
     </row>
-    <row r="61" spans="1:19" ht="20" customHeight="1">
+    <row r="61" spans="1:19" ht="19.95" customHeight="1">
       <c r="A61" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C61" s="1">
         <v>4</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F61" s="1">
         <v>14</v>
@@ -22520,7 +22528,7 @@
         <v>21</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="K61" s="1">
         <f>SUM(K55:K60)</f>
@@ -22534,7 +22542,7 @@
       <c r="R61" s="2"/>
       <c r="S61" s="2"/>
     </row>
-    <row r="62" spans="1:19" ht="20" customHeight="1">
+    <row r="62" spans="1:19" ht="19.95" customHeight="1">
       <c r="A62" s="7" t="s">
         <v>26</v>
       </c>
@@ -22547,7 +22555,7 @@
         <v>21</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E62" s="1">
         <f>SUM(E55:E61)</f>
@@ -22610,10 +22618,10 @@
     </row>
     <row r="68" spans="1:19">
       <c r="A68" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
-    <row r="70" spans="1:19" ht="20" customHeight="1">
+    <row r="70" spans="1:19" ht="19.95" customHeight="1">
       <c r="A70" s="1" t="s">
         <v>0</v>
       </c>
@@ -22648,15 +22656,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="71" spans="1:19" ht="20" customHeight="1">
+    <row r="71" spans="1:19" ht="19.95" customHeight="1">
       <c r="A71" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D71" s="1">
         <v>14</v>
@@ -22689,12 +22697,12 @@
         <v>960</v>
       </c>
     </row>
-    <row r="72" spans="1:19" ht="20" customHeight="1">
+    <row r="72" spans="1:19" ht="19.95" customHeight="1">
       <c r="A72" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C72" s="1">
         <f t="shared" ref="C72:C78" si="8">SUM(C56,C40,C28)</f>
@@ -22732,7 +22740,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="73" spans="1:19" ht="20" customHeight="1">
+    <row r="73" spans="1:19" ht="19.95" customHeight="1">
       <c r="A73" s="1" t="s">
         <v>4</v>
       </c>
@@ -22776,7 +22784,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="74" spans="1:19" ht="20" customHeight="1">
+    <row r="74" spans="1:19" ht="19.95" customHeight="1">
       <c r="A74" s="1" t="s">
         <v>5</v>
       </c>
@@ -22785,7 +22793,7 @@
         <v>6</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D74" s="1">
         <f t="shared" si="9"/>
@@ -22819,7 +22827,7 @@
         <v>5368</v>
       </c>
     </row>
-    <row r="75" spans="1:19" ht="20" customHeight="1">
+    <row r="75" spans="1:19" ht="19.95" customHeight="1">
       <c r="A75" s="1" t="s">
         <v>6</v>
       </c>
@@ -22832,7 +22840,7 @@
         <v>14</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E75" s="1">
         <f t="shared" si="5"/>
@@ -22862,7 +22870,7 @@
         <v>2760</v>
       </c>
     </row>
-    <row r="76" spans="1:19" ht="20" customHeight="1">
+    <row r="76" spans="1:19" ht="19.95" customHeight="1">
       <c r="A76" s="1" t="s">
         <v>7</v>
       </c>
@@ -22875,7 +22883,7 @@
         <v>6</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E76" s="1">
         <f t="shared" si="5"/>
@@ -22905,7 +22913,7 @@
         <v>2670</v>
       </c>
     </row>
-    <row r="77" spans="1:19" ht="20" customHeight="1">
+    <row r="77" spans="1:19" ht="19.95" customHeight="1">
       <c r="A77" s="1" t="s">
         <v>8</v>
       </c>
@@ -22918,7 +22926,7 @@
         <v>4</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E77" s="1">
         <f t="shared" si="5"/>
@@ -22937,7 +22945,7 @@
         <v>101</v>
       </c>
       <c r="J77" s="7" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="K77" s="1">
         <f>SUM(K71:K76)</f>
@@ -22948,7 +22956,7 @@
         <v>13268</v>
       </c>
     </row>
-    <row r="78" spans="1:19" ht="20" customHeight="1">
+    <row r="78" spans="1:19" ht="19.95" customHeight="1">
       <c r="A78" s="7" t="s">
         <v>26</v>
       </c>
@@ -23003,7 +23011,7 @@
     </row>
     <row r="81" spans="1:12">
       <c r="A81" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -23013,7 +23021,7 @@
       <c r="G81" s="3"/>
       <c r="H81" s="3"/>
     </row>
-    <row r="82" spans="1:12" ht="20" customHeight="1">
+    <row r="82" spans="1:12" ht="19.95" customHeight="1">
       <c r="A82" s="1" t="s">
         <v>0</v>
       </c>
@@ -23048,7 +23056,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="83" spans="1:12" ht="20" customHeight="1">
+    <row r="83" spans="1:12" ht="19.95" customHeight="1">
       <c r="A83" s="1" t="s">
         <v>2</v>
       </c>
@@ -23092,7 +23100,7 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="84" spans="1:12" ht="20" customHeight="1">
+    <row r="84" spans="1:12" ht="19.95" customHeight="1">
       <c r="A84" s="1" t="s">
         <v>3</v>
       </c>
@@ -23136,7 +23144,7 @@
         <v>1740</v>
       </c>
     </row>
-    <row r="85" spans="1:12" ht="20" customHeight="1">
+    <row r="85" spans="1:12" ht="19.95" customHeight="1">
       <c r="A85" s="1" t="s">
         <v>4</v>
       </c>
@@ -23180,7 +23188,7 @@
         <v>2325</v>
       </c>
     </row>
-    <row r="86" spans="1:12" ht="20" customHeight="1">
+    <row r="86" spans="1:12" ht="19.95" customHeight="1">
       <c r="A86" s="1" t="s">
         <v>5</v>
       </c>
@@ -23224,7 +23232,7 @@
         <v>5368</v>
       </c>
     </row>
-    <row r="87" spans="1:12" ht="20" customHeight="1">
+    <row r="87" spans="1:12" ht="19.95" customHeight="1">
       <c r="A87" s="1" t="s">
         <v>6</v>
       </c>
@@ -23268,7 +23276,7 @@
         <v>2760</v>
       </c>
     </row>
-    <row r="88" spans="1:12" ht="20" customHeight="1">
+    <row r="88" spans="1:12" ht="19.95" customHeight="1">
       <c r="A88" s="1" t="s">
         <v>7</v>
       </c>
@@ -23312,7 +23320,7 @@
         <v>3645</v>
       </c>
     </row>
-    <row r="89" spans="1:12" ht="20" customHeight="1">
+    <row r="89" spans="1:12" ht="19.95" customHeight="1">
       <c r="A89" s="1" t="s">
         <v>8</v>
       </c>
@@ -23345,7 +23353,7 @@
         <v>130</v>
       </c>
       <c r="J89" s="7" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="K89" s="1">
         <f>SUM(K83:K88)</f>
@@ -23356,7 +23364,7 @@
         <v>17608</v>
       </c>
     </row>
-    <row r="90" spans="1:12" ht="20" customHeight="1">
+    <row r="90" spans="1:12" ht="19.95" customHeight="1">
       <c r="A90" s="7" t="s">
         <v>26</v>
       </c>

--- a/Esterni/PianoDiProgetto/fileExcel.xlsx
+++ b/Esterni/PianoDiProgetto/fileExcel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matteo\Desktop\ZeroSeven\ProgettoSWEDocumentazione\Esterni\PianoDiProgetto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39576F42-C0B3-4D9E-8EF3-11C7AE318D41}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B08E1F3-B66B-4491-BB08-23F5025860C3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4776" yWindow="756" windowWidth="21420" windowHeight="15540" xr2:uid="{91D0A290-4AC5-3F40-8EB7-44DFE5407311}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="36">
   <si>
     <t>Nome</t>
   </si>
@@ -145,7 +145,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -185,6 +185,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -206,7 +214,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -232,6 +240,7 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -8240,7 +8249,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8500,7 +8509,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>165</c:v>
+                  <c:v>240</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20726,8 +20735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{969318DE-3F76-F04F-8210-53F47E738A81}">
   <dimension ref="A1:V90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="116" workbookViewId="0">
-      <selection activeCell="B79" sqref="B79"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -20950,6 +20959,7 @@
         <v>15</v>
       </c>
       <c r="K5" s="1">
+        <f>E9</f>
         <v>0</v>
       </c>
       <c r="L5" s="1">
@@ -20992,6 +21002,7 @@
         <v>16</v>
       </c>
       <c r="K6" s="1">
+        <f>F9</f>
         <v>0</v>
       </c>
       <c r="L6" s="1">
@@ -21078,10 +21089,12 @@
         <v>13</v>
       </c>
       <c r="K8" s="1">
-        <v>175</v>
-      </c>
-      <c r="L8" s="8">
-        <v>3845</v>
+        <f>SUM(K2:K7)</f>
+        <v>168</v>
+      </c>
+      <c r="L8" s="1">
+        <f>SUM(L2:L7)</f>
+        <v>3625</v>
       </c>
       <c r="Q8" s="6"/>
       <c r="R8" s="2"/>
@@ -21322,8 +21335,9 @@
       <c r="J17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K17" s="1" t="s">
-        <v>30</v>
+      <c r="K17" s="1" t="str">
+        <f>E21</f>
+        <v>-</v>
       </c>
       <c r="L17" s="1" t="s">
         <v>30</v>
@@ -21364,8 +21378,9 @@
       <c r="J18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K18" s="1" t="s">
-        <v>30</v>
+      <c r="K18" s="1" t="str">
+        <f>F21</f>
+        <v>-</v>
       </c>
       <c r="L18" s="1" t="s">
         <v>30</v>
@@ -21407,11 +21422,12 @@
         <v>12</v>
       </c>
       <c r="K19" s="1">
-        <v>11</v>
+        <f>G21</f>
+        <v>16</v>
       </c>
       <c r="L19" s="1">
         <f>Tabella3714[[#This Row],[Ore]]*15</f>
-        <v>165</v>
+        <v>240</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
@@ -21450,12 +21466,12 @@
         <v>13</v>
       </c>
       <c r="K20" s="1">
-        <f>SUM(K14:K19)</f>
-        <v>30</v>
+        <f>H21</f>
+        <v>35</v>
       </c>
       <c r="L20" s="1">
         <f>SUM(L14:L19)</f>
-        <v>640</v>
+        <v>715</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" s="2"/>
@@ -21490,6 +21506,7 @@
         <v>16</v>
       </c>
       <c r="H21" s="1">
+        <f>SUM(H14:H20)</f>
         <v>35</v>
       </c>
       <c r="Q21" s="6"/>
@@ -21817,6 +21834,7 @@
         <f t="shared" si="1"/>
         <v>197</v>
       </c>
+      <c r="I34" s="9"/>
       <c r="Q34" s="2"/>
       <c r="R34" s="2"/>
       <c r="S34" s="2"/>
@@ -23399,10 +23417,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="14">
-    <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
@@ -23416,6 +23433,7 @@
     <tablePart r:id="rId13"/>
     <tablePart r:id="rId14"/>
     <tablePart r:id="rId15"/>
+    <tablePart r:id="rId16"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Esterni/PianoDiProgetto/fileExcel.xlsx
+++ b/Esterni/PianoDiProgetto/fileExcel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matteo\Desktop\ZeroSeven\ProgettoSWEDocumentazione\Esterni\PianoDiProgetto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B08E1F3-B66B-4491-BB08-23F5025860C3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E09183F-466F-45E6-8A23-512715FB7520}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4776" yWindow="756" windowWidth="21420" windowHeight="15540" xr2:uid="{91D0A290-4AC5-3F40-8EB7-44DFE5407311}"/>
   </bookViews>
@@ -248,6 +248,232 @@
   <dxfs count="112">
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -319,46 +545,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -727,192 +913,6 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -4666,10 +4666,10 @@
                   <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>26</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>244</c:v>
@@ -4926,10 +4926,10 @@
                   <c:v>960</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>860</c:v>
+                  <c:v>760</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>650</c:v>
+                  <c:v>775</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="General">
                   <c:v>5368</c:v>
@@ -20137,7 +20137,7 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{D5A02E85-7C8D-8740-A90C-5D22629C29CC}" name="Tabella13481034613" displayName="Tabella13481034613" ref="A54:H62" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38" headerRowCellStyle="Normale">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{D5A02E85-7C8D-8740-A90C-5D22629C29CC}" name="Tabella13481034613" displayName="Tabella13481034613" ref="A54:H62" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" headerRowCellStyle="Normale">
   <autoFilter ref="A54:H62" xr:uid="{88C2E28E-B778-2A47-BC47-A961D53DC2BE}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -20149,21 +20149,21 @@
     <filterColumn colId="7" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{707988B3-C55B-5B47-95E0-6BD17D9A46F1}" name="Nome" dataDxfId="37"/>
-    <tableColumn id="2" xr3:uid="{0C0E77AD-8840-D445-B66A-CA27EA248E4C}" name="Re" dataDxfId="36"/>
-    <tableColumn id="3" xr3:uid="{5BA51EF1-2B8F-B146-9957-C54DB314908E}" name="Am" dataDxfId="35"/>
-    <tableColumn id="4" xr3:uid="{AB4DEDE5-DFCD-1746-BB44-6E6CA91C5778}" name="An" dataDxfId="34"/>
-    <tableColumn id="5" xr3:uid="{5545DC77-E906-CC41-9E76-388658978799}" name="Pt" dataDxfId="33"/>
-    <tableColumn id="6" xr3:uid="{077AF30A-D846-2442-84E1-E1249190E67F}" name="Pr" dataDxfId="32"/>
-    <tableColumn id="7" xr3:uid="{7CB1143E-4CDF-5944-BA73-5797C095FDEF}" name="Ve" dataDxfId="31"/>
-    <tableColumn id="8" xr3:uid="{34FFE7B5-2695-544B-A2DC-299B8D2B5588}" name="Totale" dataDxfId="30"/>
+    <tableColumn id="1" xr3:uid="{707988B3-C55B-5B47-95E0-6BD17D9A46F1}" name="Nome" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{0C0E77AD-8840-D445-B66A-CA27EA248E4C}" name="Re" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{5BA51EF1-2B8F-B146-9957-C54DB314908E}" name="Am" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{AB4DEDE5-DFCD-1746-BB44-6E6CA91C5778}" name="An" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{5545DC77-E906-CC41-9E76-388658978799}" name="Pt" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{077AF30A-D846-2442-84E1-E1249190E67F}" name="Pr" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{7CB1143E-4CDF-5944-BA73-5797C095FDEF}" name="Ve" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{34FFE7B5-2695-544B-A2DC-299B8D2B5588}" name="Totale" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="Stile tabella 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{D48F2D0B-1B71-774A-A610-0B866A327B7A}" name="Tabella134810" displayName="Tabella134810" ref="A70:H78" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28" headerRowCellStyle="Normale">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{D48F2D0B-1B71-774A-A610-0B866A327B7A}" name="Tabella134810" displayName="Tabella134810" ref="A70:H78" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38" headerRowCellStyle="Normale">
   <autoFilter ref="A70:H78" xr:uid="{2C11A7B7-29CB-844A-8C3C-9D68E005A16F}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -20175,26 +20175,26 @@
     <filterColumn colId="7" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{8BB2DC4C-0AB6-C34D-8056-CAC06D8BDA68}" name="Nome" dataDxfId="27"/>
-    <tableColumn id="2" xr3:uid="{A153F5C4-2568-E943-9B5F-238FE2E04866}" name="Responsabile" dataDxfId="26">
+    <tableColumn id="1" xr3:uid="{8BB2DC4C-0AB6-C34D-8056-CAC06D8BDA68}" name="Nome" dataDxfId="37"/>
+    <tableColumn id="2" xr3:uid="{A153F5C4-2568-E943-9B5F-238FE2E04866}" name="Responsabile" dataDxfId="36">
       <calculatedColumnFormula>SUM(B39,B27,B55)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{F7FC9BCC-5EE1-CF41-B8F8-5097007D4094}" name="Amministratore" dataDxfId="25">
+    <tableColumn id="3" xr3:uid="{F7FC9BCC-5EE1-CF41-B8F8-5097007D4094}" name="Amministratore" dataDxfId="35">
       <calculatedColumnFormula>SUM(C55,C39,C27)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{DB09EB9D-4B08-2E44-9EDD-6274DCFDF223}" name="Analista" dataDxfId="24">
+    <tableColumn id="4" xr3:uid="{DB09EB9D-4B08-2E44-9EDD-6274DCFDF223}" name="Analista" dataDxfId="34">
       <calculatedColumnFormula>SUM(D55,D39,D27)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{E31E6B99-18DD-9F40-89F1-608BE4AA623D}" name="Progettista" dataDxfId="23">
+    <tableColumn id="5" xr3:uid="{E31E6B99-18DD-9F40-89F1-608BE4AA623D}" name="Progettista" dataDxfId="33">
       <calculatedColumnFormula>SUM(E55,E39,E27)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{A92F21BE-E57B-3143-9B17-357696921D72}" name="Programmatore" dataDxfId="22">
+    <tableColumn id="6" xr3:uid="{A92F21BE-E57B-3143-9B17-357696921D72}" name="Programmatore" dataDxfId="32">
       <calculatedColumnFormula>SUM(F55,F39,F27)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{5F049EBB-8DFA-774C-93B6-032880102BDC}" name="Verificatore" dataDxfId="21">
+    <tableColumn id="7" xr3:uid="{5F049EBB-8DFA-774C-93B6-032880102BDC}" name="Verificatore" dataDxfId="31">
       <calculatedColumnFormula>SUM(G39,G55,G27)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{D2B4E113-CBFD-024C-9D29-F7DF6A8CD861}" name="Totale" dataDxfId="20">
+    <tableColumn id="8" xr3:uid="{D2B4E113-CBFD-024C-9D29-F7DF6A8CD861}" name="Totale" dataDxfId="30">
       <calculatedColumnFormula>SUM(Tabella134810[[#This Row],[Responsabile]:[Verificatore]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -20203,23 +20203,23 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{0B104D60-5C46-0749-9C74-202032FED816}" name="Tabella46" displayName="Tabella46" ref="J70:L77" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{0B104D60-5C46-0749-9C74-202032FED816}" name="Tabella46" displayName="Tabella46" ref="J70:L77" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
   <autoFilter ref="J70:L77" xr:uid="{85BA548D-D781-6649-B9AB-CDF920E6C652}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{7B9CC301-EBBE-B740-990F-19FDF8D439D0}" name="Ruolo " dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{8ACC141D-8251-5D4C-899D-B420DA290D6C}" name="Ore" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{696499A8-33CD-3B40-BF6F-90D4C010C6DA}" name="Costo(€)" dataDxfId="15"/>
+    <tableColumn id="1" xr3:uid="{7B9CC301-EBBE-B740-990F-19FDF8D439D0}" name="Ruolo " dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{8ACC141D-8251-5D4C-899D-B420DA290D6C}" name="Ore" dataDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{696499A8-33CD-3B40-BF6F-90D4C010C6DA}" name="Costo(€)" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo name="Stile tabella 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{65499987-BDAF-E44B-9F13-F6E4BB584A72}" name="Tabella13481025" displayName="Tabella13481025" ref="A82:H90" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13" headerRowCellStyle="Normale">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{65499987-BDAF-E44B-9F13-F6E4BB584A72}" name="Tabella13481025" displayName="Tabella13481025" ref="A82:H90" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23" headerRowCellStyle="Normale">
   <autoFilter ref="A82:H90" xr:uid="{71BF65C9-9A52-A94F-A9BD-B3D2B8E6F3B3}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -20231,42 +20231,42 @@
     <filterColumn colId="7" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{71F37CE6-725D-FD43-A9A6-DDB73147E132}" name="Nome" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{71F37CE6-725D-FD43-A9A6-DDB73147E132}" name="Nome" dataDxfId="22"/>
     <tableColumn id="2" xr3:uid="{84D5294E-974B-1C40-817C-3F681DBA6D18}" name="Responsabile" dataDxfId="11">
       <calculatedColumnFormula>SUM(B39,B27,B14,B2,B55)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{C79802CA-78F4-8B48-9BEA-AD82C956BAE8}" name="Amministratore" dataDxfId="10">
       <calculatedColumnFormula>SUM(C55,C39,C27,C14,C2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{E6DFD6BC-B706-1B41-9468-C00CB40F15F8}" name="Analista" dataDxfId="9">
+    <tableColumn id="4" xr3:uid="{E6DFD6BC-B706-1B41-9468-C00CB40F15F8}" name="Analista" dataDxfId="21">
       <calculatedColumnFormula>SUM(D55,D39,D27,D14,D2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{FF18E13E-2391-EE4D-9132-2990C37CB7C4}" name="Progettista" dataDxfId="8">
+    <tableColumn id="5" xr3:uid="{FF18E13E-2391-EE4D-9132-2990C37CB7C4}" name="Progettista" dataDxfId="20">
       <calculatedColumnFormula>SUM(E55,E39,E27,E14,E2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{ED5A10FB-2768-9E4A-97F8-C7BCB1E1D88D}" name="Programmatore" dataDxfId="7">
+    <tableColumn id="6" xr3:uid="{ED5A10FB-2768-9E4A-97F8-C7BCB1E1D88D}" name="Programmatore" dataDxfId="19">
       <calculatedColumnFormula>SUM(F55,F39,F27,F14,F2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{95D36865-5FE7-8644-9F55-9E9738632CFC}" name="Verificatore" dataDxfId="6">
+    <tableColumn id="7" xr3:uid="{95D36865-5FE7-8644-9F55-9E9738632CFC}" name="Verificatore" dataDxfId="18">
       <calculatedColumnFormula>SUM(G55,G39,G27,G14,G2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{02ACA093-F53A-A444-9156-047DEC1D81CA}" name="Totale" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{02ACA093-F53A-A444-9156-047DEC1D81CA}" name="Totale" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="Stile tabella 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{A5B512C5-5B0E-B740-9B32-D9DCAD440307}" name="Tabella4626" displayName="Tabella4626" ref="J82:L89" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{A5B512C5-5B0E-B740-9B32-D9DCAD440307}" name="Tabella4626" displayName="Tabella4626" ref="J82:L89" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
   <autoFilter ref="J82:L89" xr:uid="{72533F1C-0816-D149-93FF-F7138354168C}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{668D9AA0-1707-9B4C-8F87-84796C6CF3FB}" name="Ruolo " dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{7DDA1553-61DF-AF4F-AE23-6249592BE2E0}" name="Ore" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{C222E531-3A06-EC49-AED4-EA274BFF46F5}" name="Costo(€)" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{668D9AA0-1707-9B4C-8F87-84796C6CF3FB}" name="Ruolo " dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{7DDA1553-61DF-AF4F-AE23-6249592BE2E0}" name="Ore" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{C222E531-3A06-EC49-AED4-EA274BFF46F5}" name="Costo(€)" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="Stile tabella 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -20735,8 +20735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{969318DE-3F76-F04F-8210-53F47E738A81}">
   <dimension ref="A1:V90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -21466,7 +21466,7 @@
         <v>13</v>
       </c>
       <c r="K20" s="1">
-        <f>H21</f>
+        <f>SUM(K14:K19)</f>
         <v>35</v>
       </c>
       <c r="L20" s="1">
@@ -22312,7 +22312,8 @@
         <v>12</v>
       </c>
       <c r="H55" s="1">
-        <v>20</v>
+        <f>SUM(Tabella13481034613[[#This Row],[Re]:[Ve]])</f>
+        <v>21</v>
       </c>
       <c r="J55" s="1" t="s">
         <v>9</v>
@@ -22589,7 +22590,7 @@
       </c>
       <c r="H62" s="1">
         <f>SUM(H55:H61)</f>
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q62" s="2"/>
       <c r="R62" s="2"/>
@@ -22751,11 +22752,11 @@
       </c>
       <c r="K72" s="1">
         <f>C78</f>
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="L72" s="8">
         <f>Tabella46[[#This Row],[Ore]]*20</f>
-        <v>860</v>
+        <v>760</v>
       </c>
     </row>
     <row r="73" spans="1:19" ht="19.95" customHeight="1">
@@ -22795,11 +22796,11 @@
       </c>
       <c r="K73" s="1">
         <f>D78</f>
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="L73" s="8">
         <f>Tabella46[[#This Row],[Ore]]*25</f>
-        <v>650</v>
+        <v>775</v>
       </c>
     </row>
     <row r="74" spans="1:19" ht="19.95" customHeight="1">
@@ -22971,7 +22972,7 @@
       </c>
       <c r="L77" s="8">
         <f>SUM(L71:L76)</f>
-        <v>13268</v>
+        <v>13293</v>
       </c>
     </row>
     <row r="78" spans="1:19" ht="19.95" customHeight="1">
@@ -22979,31 +22980,31 @@
         <v>26</v>
       </c>
       <c r="B78" s="1">
-        <f t="shared" si="10"/>
+        <f>SUM(B71:B77)</f>
         <v>32</v>
       </c>
       <c r="C78" s="1">
-        <f t="shared" si="8"/>
-        <v>43</v>
+        <f>SUM(C71:C77)</f>
+        <v>38</v>
       </c>
       <c r="D78" s="1">
-        <f t="shared" si="9"/>
-        <v>26</v>
+        <f>SUM(D71:D77)</f>
+        <v>31</v>
       </c>
       <c r="E78" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="C78:H78" si="11">SUM(E71:E77)</f>
         <v>244</v>
       </c>
       <c r="F78" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>184</v>
       </c>
       <c r="G78" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>178</v>
       </c>
       <c r="H78" s="1">
-        <f>SUM(Tabella134810[[#This Row],[Responsabile]:[Verificatore]])</f>
+        <f t="shared" si="11"/>
         <v>707</v>
       </c>
     </row>
@@ -23079,27 +23080,27 @@
         <v>2</v>
       </c>
       <c r="B83" s="1">
-        <f t="shared" ref="B83:B90" si="11">SUM(B39,B27,B14,B2,B55)</f>
+        <f t="shared" ref="B83:B89" si="12">SUM(B39,B27,B14,B2,B55)</f>
         <v>10</v>
       </c>
       <c r="C83" s="1">
-        <f t="shared" ref="C83:G90" si="12">SUM(C55,C39,C27,C14,C2)</f>
+        <f t="shared" ref="C83:G90" si="13">SUM(C55,C39,C27,C14,C2)</f>
         <v>8</v>
       </c>
       <c r="D83" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>18</v>
       </c>
       <c r="E83" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>26</v>
       </c>
       <c r="F83" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>28</v>
       </c>
       <c r="G83" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>40</v>
       </c>
       <c r="H83" s="1">
@@ -23123,27 +23124,27 @@
         <v>3</v>
       </c>
       <c r="B84" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="C84" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>12</v>
       </c>
       <c r="D84" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>16</v>
       </c>
       <c r="E84" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>38</v>
       </c>
       <c r="F84" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>22</v>
       </c>
       <c r="G84" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>37</v>
       </c>
       <c r="H84" s="1">
@@ -23167,27 +23168,27 @@
         <v>4</v>
       </c>
       <c r="B85" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>17</v>
       </c>
       <c r="C85" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>16</v>
       </c>
       <c r="D85" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="E85" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>37</v>
       </c>
       <c r="F85" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>25</v>
       </c>
       <c r="G85" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>25</v>
       </c>
       <c r="H85" s="1">
@@ -23211,27 +23212,27 @@
         <v>5</v>
       </c>
       <c r="B86" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
       <c r="C86" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>9</v>
       </c>
       <c r="D86" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>17</v>
       </c>
       <c r="E86" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>35</v>
       </c>
       <c r="F86" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>26</v>
       </c>
       <c r="G86" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>37</v>
       </c>
       <c r="H86" s="1">
@@ -23255,27 +23256,27 @@
         <v>6</v>
       </c>
       <c r="B87" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>8</v>
       </c>
       <c r="C87" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>18</v>
       </c>
       <c r="D87" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>12</v>
       </c>
       <c r="E87" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>32</v>
       </c>
       <c r="F87" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>23</v>
       </c>
       <c r="G87" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>37</v>
       </c>
       <c r="H87" s="1">
@@ -23299,27 +23300,27 @@
         <v>7</v>
       </c>
       <c r="B88" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
       <c r="C88" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>14</v>
       </c>
       <c r="D88" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="E88" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>34</v>
       </c>
       <c r="F88" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>25</v>
       </c>
       <c r="G88" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>41</v>
       </c>
       <c r="H88" s="1">
@@ -23343,27 +23344,27 @@
         <v>8</v>
       </c>
       <c r="B89" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="C89" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="D89" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="E89" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>42</v>
       </c>
       <c r="F89" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>35</v>
       </c>
       <c r="G89" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>26</v>
       </c>
       <c r="H89" s="1">
@@ -23387,31 +23388,31 @@
         <v>26</v>
       </c>
       <c r="B90" s="1">
-        <f t="shared" si="11"/>
+        <f>SUM(B83:B89)</f>
         <v>59</v>
       </c>
       <c r="C90" s="1">
-        <f t="shared" si="12"/>
+        <f>SUM(C83:C89)</f>
         <v>87</v>
       </c>
       <c r="D90" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="D90:H90" si="14">SUM(D83:D89)</f>
         <v>93</v>
       </c>
       <c r="E90" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>244</v>
       </c>
       <c r="F90" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>184</v>
       </c>
       <c r="G90" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>243</v>
       </c>
       <c r="H90" s="1">
-        <f>SUM(Tabella13481025[[#This Row],[Responsabile]:[Verificatore]])</f>
+        <f t="shared" si="14"/>
         <v>910</v>
       </c>
     </row>

--- a/Esterni/PianoDiProgetto/fileExcel.xlsx
+++ b/Esterni/PianoDiProgetto/fileExcel.xlsx
@@ -70,7 +70,7 @@
     <t>Ore totali ruolo</t>
   </si>
   <si>
-    <t>Analisi dei requisiti in dettaglio</t>
+    <t>Revisione Analisi</t>
   </si>
   <si>
     <t>Re</t>
@@ -125,7 +125,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -162,6 +162,13 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <u val="single"/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <u val="single"/>
@@ -353,7 +360,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -435,7 +442,10 @@
     <xf numFmtId="49" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="7" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -444,19 +454,19 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1345,10 +1355,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.256529"/>
-          <c:y val="0.256529"/>
-          <c:w val="0.486941"/>
-          <c:h val="0.474441"/>
+          <c:x val="0.258697"/>
+          <c:y val="0.258697"/>
+          <c:w val="0.482605"/>
+          <c:h val="0.470105"/>
         </c:manualLayout>
       </c:layout>
       <c:pieChart>
@@ -1709,7 +1719,7 @@
                   <c:v>21.000000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.000000</c:v>
+                  <c:v>12.000000</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>24.000000</c:v>
@@ -2080,7 +2090,7 @@
                   <c:v>420.000000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.000000</c:v>
+                  <c:v>300.000000</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>528.000000</c:v>
@@ -2231,7 +2241,7 @@
                   <c:v>0.000000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.000000</c:v>
+                  <c:v>6.000000</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.000000</c:v>
@@ -2337,7 +2347,7 @@
               <c:numCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>8.000000</c:v>
+                  <c:v>3.000000</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>6.000000</c:v>
@@ -2446,13 +2456,13 @@
               <c:numCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>9.000000</c:v>
+                  <c:v>13.000000</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>6.000000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.000000</c:v>
+                  <c:v>10.000000</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>9.000000</c:v>
@@ -2461,7 +2471,7 @@
                   <c:v>3.000000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.000000</c:v>
+                  <c:v>4.000000</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>2.000000</c:v>
@@ -2558,7 +2568,7 @@
                   <c:v>26.000000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>38.000000</c:v>
+                  <c:v>36.000000</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>37.000000</c:v>
@@ -2567,13 +2577,13 @@
                   <c:v>35.000000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>32.000000</c:v>
+                  <c:v>30.000000</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>34.000000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42.000000</c:v>
+                  <c:v>41.000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2679,10 +2689,10 @@
                   <c:v>23.000000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25.000000</c:v>
+                  <c:v>26.000000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>35.000000</c:v>
+                  <c:v>34.000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2782,13 +2792,13 @@
                   <c:v>25.000000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30.000000</c:v>
+                  <c:v>28.000000</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>26.000000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>33.000000</c:v>
+                  <c:v>28.000000</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>16.000000</c:v>
@@ -2967,10 +2977,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.29121"/>
-          <c:y val="0.29121"/>
-          <c:w val="0.417581"/>
-          <c:h val="0.405081"/>
+          <c:x val="0.291087"/>
+          <c:y val="0.291087"/>
+          <c:w val="0.417825"/>
+          <c:h val="0.405325"/>
         </c:manualLayout>
       </c:layout>
       <c:pieChart>
@@ -3325,22 +3335,22 @@
               <c:numCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>32.000000</c:v>
+                  <c:v>33.000000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>46.000000</c:v>
+                  <c:v>41.000000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>35.000000</c:v>
+                  <c:v>47.000000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>244.000000</c:v>
+                  <c:v>239.000000</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>184.000000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>194.000000</c:v>
+                  <c:v>187.000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3696,22 +3706,22 @@
               <c:numCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>960.000000</c:v>
+                  <c:v>990.000000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>920.000000</c:v>
+                  <c:v>820.000000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>875.000000</c:v>
+                  <c:v>1175.000000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5368.000000</c:v>
+                  <c:v>5258.000000</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2760.000000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2910.000000</c:v>
+                  <c:v>2805.000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3853,7 +3863,7 @@
                   <c:v>10.000000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.000000</c:v>
+                  <c:v>6.000000</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>12.000000</c:v>
@@ -3959,7 +3969,7 @@
               <c:numCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>8.000000</c:v>
+                  <c:v>3.000000</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>12.000000</c:v>
@@ -4068,13 +4078,13 @@
               <c:numCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>18.000000</c:v>
+                  <c:v>22.000000</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>16.000000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.000000</c:v>
+                  <c:v>14.000000</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>17.000000</c:v>
@@ -4083,7 +4093,7 @@
                   <c:v>12.000000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.000000</c:v>
+                  <c:v>14.000000</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>10.000000</c:v>
@@ -4180,7 +4190,7 @@
                   <c:v>26.000000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>38.000000</c:v>
+                  <c:v>36.000000</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>37.000000</c:v>
@@ -4189,13 +4199,13 @@
                   <c:v>35.000000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>32.000000</c:v>
+                  <c:v>30.000000</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>34.000000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42.000000</c:v>
+                  <c:v>41.000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4301,10 +4311,10 @@
                   <c:v>23.000000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25.000000</c:v>
+                  <c:v>26.000000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>35.000000</c:v>
+                  <c:v>34.000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4404,13 +4414,13 @@
                   <c:v>25.000000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>37.000000</c:v>
+                  <c:v>35.000000</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>37.000000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41.000000</c:v>
+                  <c:v>36.000000</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>26.000000</c:v>
@@ -4589,10 +4599,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.289812"/>
-          <c:y val="0.289812"/>
-          <c:w val="0.420377"/>
-          <c:h val="0.407877"/>
+          <c:x val="0.289667"/>
+          <c:y val="0.289667"/>
+          <c:w val="0.420666"/>
+          <c:h val="0.408166"/>
         </c:manualLayout>
       </c:layout>
       <c:pieChart>
@@ -4947,22 +4957,22 @@
               <c:numCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>54.000000</c:v>
+                  <c:v>55.000000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>85.000000</c:v>
+                  <c:v>80.000000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>93.000000</c:v>
+                  <c:v>105.000000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>244.000000</c:v>
+                  <c:v>239.000000</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>184.000000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>243.000000</c:v>
+                  <c:v>236.000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5318,22 +5328,22 @@
               <c:numCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1620.000000</c:v>
+                  <c:v>1650.000000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1700.000000</c:v>
+                  <c:v>1600.000000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2325.000000</c:v>
+                  <c:v>2625.000000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5368.000000</c:v>
+                  <c:v>5258.000000</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2760.000000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3645.000000</c:v>
+                  <c:v>3540.000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6263,7 +6273,7 @@
                   <c:v>0.000000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.000000</c:v>
+                  <c:v>6.000000</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.000000</c:v>
@@ -7000,10 +7010,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.294113"/>
-          <c:y val="0.294113"/>
-          <c:w val="0.411773"/>
-          <c:h val="0.399273"/>
+          <c:x val="0.293581"/>
+          <c:y val="0.293581"/>
+          <c:w val="0.412839"/>
+          <c:h val="0.400339"/>
         </c:manualLayout>
       </c:layout>
       <c:pieChart>
@@ -7358,7 +7368,7 @@
               <c:numCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>5.000000</c:v>
+                  <c:v>6.000000</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>3.000000</c:v>
@@ -7729,7 +7739,7 @@
               <c:numCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>150.000000</c:v>
+                  <c:v>180.000000</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>60.000000</c:v>
@@ -7992,7 +8002,7 @@
               <c:numCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>5.000000</c:v>
+                  <c:v>0.000000</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.000000</c:v>
@@ -8213,7 +8223,7 @@
                   <c:v>9.000000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.000000</c:v>
+                  <c:v>8.000000</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>22.000000</c:v>
@@ -8222,7 +8232,7 @@
                   <c:v>12.000000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>19.000000</c:v>
+                  <c:v>17.000000</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>11.000000</c:v>
@@ -8437,13 +8447,13 @@
                   <c:v>0.000000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.000000</c:v>
+                  <c:v>11.000000</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.000000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18.000000</c:v>
+                  <c:v>12.000000</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.000000</c:v>
@@ -8623,10 +8633,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.294633"/>
-          <c:y val="0.294633"/>
-          <c:w val="0.410734"/>
-          <c:h val="0.398234"/>
+          <c:x val="0.294286"/>
+          <c:y val="0.294286"/>
+          <c:w val="0.411429"/>
+          <c:h val="0.398929"/>
         </c:manualLayout>
       </c:layout>
       <c:pieChart>
@@ -8984,19 +8994,19 @@
                   <c:v>7.000000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.000000</c:v>
+                  <c:v>5.000000</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>15.000000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>103.000000</c:v>
+                  <c:v>99.000000</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>15.000000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42.000000</c:v>
+                  <c:v>34.000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9355,19 +9365,19 @@
                   <c:v>210.000000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200.000000</c:v>
+                  <c:v>100.000000</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>375.000000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2266.000000</c:v>
+                  <c:v>2178.000000</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>225.000000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>630.000000</c:v>
+                  <c:v>510.000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9851,7 +9861,7 @@
                   <c:v>20.000000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>22.000000</c:v>
+                  <c:v>21.000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10066,7 +10076,7 @@
                   <c:v>11.000000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12.000000</c:v>
+                  <c:v>13.000000</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>10.000000</c:v>
@@ -10185,7 +10195,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.805976"/>
-          <c:y val="0.313279"/>
+          <c:y val="0.313278"/>
           <c:w val="0.194024"/>
           <c:h val="0.321699"/>
         </c:manualLayout>
@@ -10245,10 +10255,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.292055"/>
-          <c:y val="0.292055"/>
-          <c:w val="0.415889"/>
-          <c:h val="0.403389"/>
+          <c:x val="0.29201"/>
+          <c:y val="0.29201"/>
+          <c:w val="0.415979"/>
+          <c:h val="0.403479"/>
         </c:manualLayout>
       </c:layout>
       <c:pieChart>
@@ -10612,13 +10622,13 @@
                   <c:v>11.000000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>117.000000</c:v>
+                  <c:v>116.000000</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>144.000000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>72.000000</c:v>
+                  <c:v>73.000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10983,13 +10993,13 @@
                   <c:v>275.000000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2574.000000</c:v>
+                  <c:v>2552.000000</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2160.000000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1080.000000</c:v>
+                  <c:v>1095.000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11346,13 +11356,13 @@
               <c:numCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.000000</c:v>
+                  <c:v>4.000000</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.000000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.000000</c:v>
+                  <c:v>4.000000</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.000000</c:v>
@@ -11361,7 +11371,7 @@
                   <c:v>0.000000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.000000</c:v>
+                  <c:v>4.000000</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.000000</c:v>
@@ -11579,10 +11589,10 @@
                   <c:v>0.000000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11.000000</c:v>
+                  <c:v>12.000000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14.000000</c:v>
+                  <c:v>13.000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11950,7 +11960,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>551570</xdr:colOff>
+      <xdr:colOff>551571</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>203200</xdr:rowOff>
     </xdr:from>
@@ -11980,7 +11990,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>607205</xdr:colOff>
+      <xdr:colOff>607206</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -11996,8 +12006,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="18857105" y="-995852"/>
-        <a:ext cx="4449790" cy="4449789"/>
+        <a:off x="18857106" y="-995852"/>
+        <a:ext cx="4449789" cy="4449789"/>
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -12040,15 +12050,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>420889</xdr:colOff>
+      <xdr:colOff>426759</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>191337</xdr:rowOff>
+      <xdr:rowOff>197206</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>118860</xdr:colOff>
+      <xdr:colOff>112991</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>231573</xdr:rowOff>
+      <xdr:rowOff>225704</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -12056,8 +12066,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="18670789" y="1711527"/>
-        <a:ext cx="4549372" cy="4549372"/>
+        <a:off x="18676659" y="1717396"/>
+        <a:ext cx="4537633" cy="4537634"/>
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -12100,15 +12110,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>374924</xdr:colOff>
+      <xdr:colOff>378721</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>17421</xdr:rowOff>
+      <xdr:rowOff>21218</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>18775</xdr:colOff>
+      <xdr:colOff>14977</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>173082</xdr:rowOff>
+      <xdr:rowOff>169285</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -12116,8 +12126,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="18624824" y="4692291"/>
-        <a:ext cx="4495252" cy="4495252"/>
+        <a:off x="18628621" y="4696088"/>
+        <a:ext cx="4487657" cy="4487658"/>
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -12138,7 +12148,7 @@
       <xdr:col>18</xdr:col>
       <xdr:colOff>213852</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>103065</xdr:rowOff>
+      <xdr:rowOff>103064</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -12147,7 +12157,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="11742344" y="8576185"/>
-        <a:ext cx="5629209" cy="2568261"/>
+        <a:ext cx="5629209" cy="2568260"/>
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -12160,15 +12170,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>260688</xdr:colOff>
+      <xdr:colOff>261208</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>138651</xdr:rowOff>
+      <xdr:rowOff>139170</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>198562</xdr:colOff>
+      <xdr:colOff>198043</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>192094</xdr:rowOff>
+      <xdr:rowOff>191575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -12176,8 +12186,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="18510588" y="7688166"/>
-        <a:ext cx="4789275" cy="4789274"/>
+        <a:off x="18511108" y="7688685"/>
+        <a:ext cx="4788236" cy="4788236"/>
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -12220,15 +12230,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>682042</xdr:colOff>
+      <xdr:colOff>664061</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>82005</xdr:rowOff>
+      <xdr:rowOff>64024</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>684552</xdr:colOff>
+      <xdr:colOff>702533</xdr:colOff>
       <xdr:row>67</xdr:row>
-      <xdr:rowOff>21650</xdr:rowOff>
+      <xdr:rowOff>39631</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -12236,8 +12246,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="18931942" y="11971110"/>
-        <a:ext cx="4003011" cy="4003011"/>
+        <a:off x="18913961" y="11953129"/>
+        <a:ext cx="4038973" cy="4038973"/>
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -12280,15 +12290,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>552004</xdr:colOff>
+      <xdr:colOff>553372</xdr:colOff>
       <xdr:row>61</xdr:row>
-      <xdr:rowOff>114488</xdr:rowOff>
+      <xdr:rowOff>115856</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>375095</xdr:colOff>
+      <xdr:colOff>373728</xdr:colOff>
       <xdr:row>82</xdr:row>
-      <xdr:rowOff>20765</xdr:rowOff>
+      <xdr:rowOff>19398</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -12296,8 +12306,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="18801904" y="14822993"/>
-        <a:ext cx="4674492" cy="4674493"/>
+        <a:off x="18803272" y="14824361"/>
+        <a:ext cx="4671757" cy="4671758"/>
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -12310,7 +12320,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>361380</xdr:colOff>
+      <xdr:colOff>361381</xdr:colOff>
       <xdr:row>81</xdr:row>
       <xdr:rowOff>11424</xdr:rowOff>
     </xdr:from>
@@ -12326,8 +12336,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="11588180" y="19234779"/>
-        <a:ext cx="6073165" cy="2558728"/>
+        <a:off x="11588181" y="19234779"/>
+        <a:ext cx="6073164" cy="2558728"/>
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -12340,15 +12350,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>983574</xdr:colOff>
+      <xdr:colOff>985167</xdr:colOff>
       <xdr:row>76</xdr:row>
-      <xdr:rowOff>148857</xdr:rowOff>
+      <xdr:rowOff>150452</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>527726</xdr:colOff>
+      <xdr:colOff>526131</xdr:colOff>
       <xdr:row>97</xdr:row>
-      <xdr:rowOff>17494</xdr:rowOff>
+      <xdr:rowOff>15900</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -12356,8 +12366,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="18141273" y="18271122"/>
-        <a:ext cx="4636854" cy="4636853"/>
+        <a:off x="18142868" y="18272717"/>
+        <a:ext cx="4633664" cy="4633664"/>
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -14351,11 +14361,11 @@
       </c>
       <c r="K14" s="9">
         <f>B21</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L14" s="9">
         <f>K14:K14*30</f>
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="M14" s="5"/>
       <c r="N14" s="6"/>
@@ -14383,7 +14393,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="12">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C15" s="12">
         <v>0</v>
@@ -14402,7 +14412,7 @@
       </c>
       <c r="H15" s="12">
         <f>SUM(B15:G15)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I15" s="4"/>
       <c r="J15" t="s" s="13">
@@ -14705,11 +14715,11 @@
       </c>
       <c r="K20" s="9">
         <f>SUM(K14:K19)</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L20" s="9">
         <f>SUM(L14:L19)</f>
-        <v>675</v>
+        <v>705</v>
       </c>
       <c r="M20" s="5"/>
       <c r="N20" s="6"/>
@@ -14738,7 +14748,7 @@
       </c>
       <c r="B21" s="12">
         <f>SUM(B14:B20)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C21" s="12">
         <f>SUM(C14:C20)</f>
@@ -14762,7 +14772,7 @@
       </c>
       <c r="H21" s="12">
         <f>SUM(H14:H20)</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I21" s="5"/>
       <c r="J21" s="20"/>
@@ -14993,7 +15003,7 @@
         <v>0</v>
       </c>
       <c r="C27" s="9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D27" s="9">
         <v>9</v>
@@ -15009,7 +15019,7 @@
       </c>
       <c r="H27" s="9">
         <f>SUM(B27:G27)</f>
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="I27" s="4"/>
       <c r="J27" t="s" s="10">
@@ -15057,8 +15067,8 @@
       <c r="D28" s="12">
         <v>6</v>
       </c>
-      <c r="E28" s="12">
-        <v>10</v>
+      <c r="E28" s="27">
+        <v>8</v>
       </c>
       <c r="F28" s="12">
         <v>0</v>
@@ -15068,7 +15078,7 @@
       </c>
       <c r="H28" s="12">
         <f>SUM(B28:G28)</f>
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I28" s="4"/>
       <c r="J28" t="s" s="13">
@@ -15076,11 +15086,11 @@
       </c>
       <c r="K28" s="12">
         <f>C34</f>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="L28" s="14">
         <f>K28:K28*20</f>
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M28" s="5"/>
       <c r="N28" s="6"/>
@@ -15182,11 +15192,11 @@
         <v>4</v>
       </c>
       <c r="G30" s="12">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H30" s="12">
         <f>SUM(B30:G30)</f>
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I30" s="4"/>
       <c r="J30" t="s" s="13">
@@ -15194,11 +15204,11 @@
       </c>
       <c r="K30" s="12">
         <f>E34</f>
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="L30" s="12">
         <f>K30:K30*22</f>
-        <v>2266</v>
+        <v>2178</v>
       </c>
       <c r="M30" s="5"/>
       <c r="N30" s="6"/>
@@ -15235,7 +15245,7 @@
         <v>0</v>
       </c>
       <c r="E31" s="9">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F31" s="9">
         <v>5</v>
@@ -15245,7 +15255,7 @@
       </c>
       <c r="H31" s="9">
         <f>SUM(B31:G31)</f>
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I31" s="4"/>
       <c r="J31" t="s" s="10">
@@ -15300,11 +15310,11 @@
         <v>0</v>
       </c>
       <c r="G32" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H32" s="12">
         <f>SUM(B32:G32)</f>
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="I32" s="4"/>
       <c r="J32" t="s" s="13">
@@ -15312,11 +15322,11 @@
       </c>
       <c r="K32" s="12">
         <f>G34</f>
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="L32" s="12">
         <f>K32:K32*15</f>
-        <v>630</v>
+        <v>510</v>
       </c>
       <c r="M32" s="5"/>
       <c r="N32" s="6"/>
@@ -15371,11 +15381,11 @@
       </c>
       <c r="K33" s="9">
         <f>SUM(K27:K32)</f>
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="L33" s="16">
         <f>SUM(L27:L32)</f>
-        <v>3906</v>
+        <v>3598</v>
       </c>
       <c r="M33" s="5"/>
       <c r="N33" s="6"/>
@@ -15408,7 +15418,7 @@
       </c>
       <c r="C34" s="12">
         <f>SUM(C27:C33)</f>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D34" s="12">
         <f>SUM(D27:D33)</f>
@@ -15416,7 +15426,7 @@
       </c>
       <c r="E34" s="12">
         <f>SUM(E27:E33)</f>
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F34" s="12">
         <f>SUM(F27:F33)</f>
@@ -15424,13 +15434,13 @@
       </c>
       <c r="G34" s="12">
         <f>SUM(G27:G33)</f>
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H34" s="12">
         <f>SUM(H27:H33)</f>
-        <v>192</v>
-      </c>
-      <c r="I34" s="27"/>
+        <v>175</v>
+      </c>
+      <c r="I34" s="28"/>
       <c r="J34" s="20"/>
       <c r="K34" s="20"/>
       <c r="L34" s="20"/>
@@ -15456,14 +15466,14 @@
       <c r="AF34" s="6"/>
     </row>
     <row r="35" ht="19.95" customHeight="1">
-      <c r="A35" s="28"/>
-      <c r="B35" s="29"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="29"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="29"/>
-      <c r="H35" s="29"/>
+      <c r="A35" s="29"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="30"/>
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
       <c r="K35" s="6"/>
@@ -15824,11 +15834,11 @@
       </c>
       <c r="K42" s="12">
         <f>E46</f>
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L42" s="12">
         <f>K42:K42*22</f>
-        <v>2574</v>
+        <v>2552</v>
       </c>
       <c r="M42" s="5"/>
       <c r="N42" s="6"/>
@@ -15930,11 +15940,11 @@
         <v>14</v>
       </c>
       <c r="G44" s="12">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H44" s="12">
         <f>SUM(B44:G44)</f>
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I44" s="4"/>
       <c r="J44" t="s" s="13">
@@ -15942,11 +15952,11 @@
       </c>
       <c r="K44" s="12">
         <f>G46</f>
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L44" s="12">
         <f>K44:K44*15</f>
-        <v>1080</v>
+        <v>1095</v>
       </c>
       <c r="M44" s="5"/>
       <c r="N44" s="6"/>
@@ -15983,7 +15993,7 @@
         <v>0</v>
       </c>
       <c r="E45" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F45" s="9">
         <v>21</v>
@@ -15993,7 +16003,7 @@
       </c>
       <c r="H45" s="9">
         <f>SUM(B45:G45)</f>
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I45" s="4"/>
       <c r="J45" t="s" s="17">
@@ -16005,7 +16015,7 @@
       </c>
       <c r="L45" s="16">
         <f>SUM(L39:L44)</f>
-        <v>6569</v>
+        <v>6562</v>
       </c>
       <c r="M45" s="5"/>
       <c r="N45" s="6"/>
@@ -16046,7 +16056,7 @@
       </c>
       <c r="E46" s="12">
         <f>SUM(E39:E45)</f>
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F46" s="12">
         <f>SUM(F39:F45)</f>
@@ -16054,7 +16064,7 @@
       </c>
       <c r="G46" s="12">
         <f>SUM(G39:G45)</f>
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H46" s="12">
         <f>SUM(H39:H45)</f>
@@ -16086,14 +16096,14 @@
       <c r="AF46" s="6"/>
     </row>
     <row r="47" ht="15.6" customHeight="1">
-      <c r="A47" s="30"/>
-      <c r="B47" s="30"/>
-      <c r="C47" s="30"/>
-      <c r="D47" s="30"/>
-      <c r="E47" s="30"/>
-      <c r="F47" s="30"/>
-      <c r="G47" s="30"/>
-      <c r="H47" s="30"/>
+      <c r="A47" s="31"/>
+      <c r="B47" s="31"/>
+      <c r="C47" s="31"/>
+      <c r="D47" s="31"/>
+      <c r="E47" s="31"/>
+      <c r="F47" s="31"/>
+      <c r="G47" s="31"/>
+      <c r="H47" s="31"/>
       <c r="I47" s="6"/>
       <c r="J47" s="7"/>
       <c r="K47" s="7"/>
@@ -16120,14 +16130,14 @@
       <c r="AF47" s="6"/>
     </row>
     <row r="48" ht="15.6" customHeight="1">
-      <c r="A48" s="31"/>
-      <c r="B48" s="31"/>
-      <c r="C48" s="31"/>
-      <c r="D48" s="31"/>
-      <c r="E48" s="31"/>
-      <c r="F48" s="31"/>
-      <c r="G48" s="31"/>
-      <c r="H48" s="31"/>
+      <c r="A48" s="32"/>
+      <c r="B48" s="32"/>
+      <c r="C48" s="32"/>
+      <c r="D48" s="32"/>
+      <c r="E48" s="32"/>
+      <c r="F48" s="32"/>
+      <c r="G48" s="32"/>
+      <c r="H48" s="32"/>
       <c r="I48" s="6"/>
       <c r="J48" s="7"/>
       <c r="K48" s="7"/>
@@ -16154,14 +16164,14 @@
       <c r="AF48" s="6"/>
     </row>
     <row r="49" ht="15.6" customHeight="1">
-      <c r="A49" s="31"/>
-      <c r="B49" s="31"/>
-      <c r="C49" s="31"/>
-      <c r="D49" s="31"/>
-      <c r="E49" s="31"/>
-      <c r="F49" s="31"/>
-      <c r="G49" s="31"/>
-      <c r="H49" s="31"/>
+      <c r="A49" s="32"/>
+      <c r="B49" s="32"/>
+      <c r="C49" s="32"/>
+      <c r="D49" s="32"/>
+      <c r="E49" s="32"/>
+      <c r="F49" s="32"/>
+      <c r="G49" s="32"/>
+      <c r="H49" s="32"/>
       <c r="I49" s="6"/>
       <c r="J49" s="7"/>
       <c r="K49" s="7"/>
@@ -16188,14 +16198,14 @@
       <c r="AF49" s="6"/>
     </row>
     <row r="50" ht="15.6" customHeight="1">
-      <c r="A50" s="32"/>
-      <c r="B50" s="31"/>
-      <c r="C50" s="31"/>
-      <c r="D50" s="31"/>
-      <c r="E50" s="31"/>
-      <c r="F50" s="31"/>
-      <c r="G50" s="31"/>
-      <c r="H50" s="31"/>
+      <c r="A50" s="33"/>
+      <c r="B50" s="32"/>
+      <c r="C50" s="32"/>
+      <c r="D50" s="32"/>
+      <c r="E50" s="32"/>
+      <c r="F50" s="32"/>
+      <c r="G50" s="32"/>
+      <c r="H50" s="32"/>
       <c r="I50" s="6"/>
       <c r="J50" s="7"/>
       <c r="K50" s="7"/>
@@ -16392,7 +16402,7 @@
         <v>0</v>
       </c>
       <c r="D55" s="9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E55" s="9">
         <v>9</v>
@@ -16405,7 +16415,7 @@
       </c>
       <c r="H55" s="9">
         <f>SUM(B55:G55)</f>
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I55" s="4"/>
       <c r="J55" t="s" s="10">
@@ -16510,7 +16520,7 @@
         <v>8</v>
       </c>
       <c r="D57" s="9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E57" s="9">
         <v>0</v>
@@ -16523,7 +16533,7 @@
       </c>
       <c r="H57" s="9">
         <f>SUM(B57:G57)</f>
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I57" s="4"/>
       <c r="J57" t="s" s="10">
@@ -16531,11 +16541,11 @@
       </c>
       <c r="K57" s="9">
         <f>D62</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="L57" s="16">
         <f>K57*25</f>
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="M57" s="5"/>
       <c r="N57" s="6"/>
@@ -16687,20 +16697,20 @@
         <v>0</v>
       </c>
       <c r="D60" s="12">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E60" s="12">
         <v>3</v>
       </c>
       <c r="F60" s="12">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G60" s="12">
         <v>0</v>
       </c>
       <c r="H60" s="12">
         <f>SUM(B60:G60)</f>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I60" s="4"/>
       <c r="J60" t="s" s="13">
@@ -16752,14 +16762,14 @@
         <v>0</v>
       </c>
       <c r="F61" s="9">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G61" s="9">
         <v>3</v>
       </c>
       <c r="H61" s="9">
         <f>SUM(B61:G61)</f>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I61" s="4"/>
       <c r="J61" t="s" s="17">
@@ -16767,11 +16777,11 @@
       </c>
       <c r="K61" s="9">
         <f>SUM(K55:K60)</f>
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="L61" s="16">
         <f>SUM(L55:L60)</f>
-        <v>2643</v>
+        <v>2943</v>
       </c>
       <c r="M61" s="5"/>
       <c r="N61" s="6"/>
@@ -16808,7 +16818,7 @@
       </c>
       <c r="D62" s="12">
         <f>SUM(D55:D61)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E62" s="12">
         <f>SUM(E55:E61)</f>
@@ -16824,7 +16834,7 @@
       </c>
       <c r="H62" s="12">
         <f>SUM(H55:H61)</f>
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="I62" s="5"/>
       <c r="J62" s="20"/>
@@ -16852,14 +16862,14 @@
       <c r="AF62" s="6"/>
     </row>
     <row r="63" ht="15.6" customHeight="1">
-      <c r="A63" s="30"/>
-      <c r="B63" s="30"/>
-      <c r="C63" s="30"/>
-      <c r="D63" s="30"/>
-      <c r="E63" s="30"/>
-      <c r="F63" s="30"/>
-      <c r="G63" s="30"/>
-      <c r="H63" s="30"/>
+      <c r="A63" s="31"/>
+      <c r="B63" s="31"/>
+      <c r="C63" s="31"/>
+      <c r="D63" s="31"/>
+      <c r="E63" s="31"/>
+      <c r="F63" s="31"/>
+      <c r="G63" s="31"/>
+      <c r="H63" s="31"/>
       <c r="I63" s="6"/>
       <c r="J63" s="6"/>
       <c r="K63" s="6"/>
@@ -16886,14 +16896,14 @@
       <c r="AF63" s="6"/>
     </row>
     <row r="64" ht="15.6" customHeight="1">
-      <c r="A64" s="31"/>
-      <c r="B64" s="31"/>
-      <c r="C64" s="31"/>
-      <c r="D64" s="31"/>
-      <c r="E64" s="31"/>
-      <c r="F64" s="31"/>
-      <c r="G64" s="31"/>
-      <c r="H64" s="31"/>
+      <c r="A64" s="32"/>
+      <c r="B64" s="32"/>
+      <c r="C64" s="32"/>
+      <c r="D64" s="32"/>
+      <c r="E64" s="32"/>
+      <c r="F64" s="32"/>
+      <c r="G64" s="32"/>
+      <c r="H64" s="32"/>
       <c r="I64" s="6"/>
       <c r="J64" s="6"/>
       <c r="K64" s="6"/>
@@ -16920,14 +16930,14 @@
       <c r="AF64" s="6"/>
     </row>
     <row r="65" ht="15.6" customHeight="1">
-      <c r="A65" s="32"/>
-      <c r="B65" s="31"/>
-      <c r="C65" s="31"/>
-      <c r="D65" s="31"/>
-      <c r="E65" s="31"/>
-      <c r="F65" s="31"/>
-      <c r="G65" s="31"/>
-      <c r="H65" s="31"/>
+      <c r="A65" s="33"/>
+      <c r="B65" s="32"/>
+      <c r="C65" s="32"/>
+      <c r="D65" s="32"/>
+      <c r="E65" s="32"/>
+      <c r="F65" s="32"/>
+      <c r="G65" s="32"/>
+      <c r="H65" s="32"/>
       <c r="I65" s="6"/>
       <c r="J65" s="6"/>
       <c r="K65" s="6"/>
@@ -17157,11 +17167,11 @@
       </c>
       <c r="C71" s="9">
         <f>C14+C27+C39+C55</f>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D71" s="9">
         <f>D14+D27+D39+D55</f>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E71" s="9">
         <f>E14+E27+E39+E55</f>
@@ -17177,7 +17187,7 @@
       </c>
       <c r="H71" s="9">
         <f>SUM(B71:G71)</f>
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I71" s="4"/>
       <c r="J71" t="s" s="10">
@@ -17185,11 +17195,11 @@
       </c>
       <c r="K71" s="9">
         <f>B78</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L71" s="9">
         <f>K71:K71*30</f>
-        <v>960</v>
+        <v>990</v>
       </c>
       <c r="M71" s="5"/>
       <c r="N71" s="6"/>
@@ -17218,7 +17228,7 @@
       </c>
       <c r="B72" s="12">
         <f>B15+B28+B40+B56</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C72" s="12">
         <f>C15+C28+C40+C56</f>
@@ -17230,7 +17240,7 @@
       </c>
       <c r="E72" s="12">
         <f>E15+E28+E40+E56</f>
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F72" s="12">
         <f>F15+F28+F40+F56</f>
@@ -17242,7 +17252,7 @@
       </c>
       <c r="H72" s="12">
         <f>SUM(B72:G72)</f>
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I72" s="4"/>
       <c r="J72" t="s" s="13">
@@ -17250,11 +17260,11 @@
       </c>
       <c r="K72" s="12">
         <f>C78</f>
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="L72" s="14">
         <f>K72:K72*20</f>
-        <v>920</v>
+        <v>820</v>
       </c>
       <c r="M72" s="5"/>
       <c r="N72" s="6"/>
@@ -17291,7 +17301,7 @@
       </c>
       <c r="D73" s="9">
         <f>D16+D29+D41+D57</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E73" s="9">
         <f>E16+E29+E41+E57</f>
@@ -17307,7 +17317,7 @@
       </c>
       <c r="H73" s="9">
         <f>SUM(B73:G73)</f>
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="I73" s="4"/>
       <c r="J73" t="s" s="10">
@@ -17315,11 +17325,11 @@
       </c>
       <c r="K73" s="9">
         <f>D78</f>
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="L73" s="16">
         <f>K73:K73*25</f>
-        <v>875</v>
+        <v>1175</v>
       </c>
       <c r="M73" s="5"/>
       <c r="N73" s="6"/>
@@ -17368,11 +17378,11 @@
       </c>
       <c r="G74" s="12">
         <f>G17+G30+G42+G58</f>
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H74" s="12">
         <f>SUM(B74:G74)</f>
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I74" s="4"/>
       <c r="J74" t="s" s="13">
@@ -17380,11 +17390,11 @@
       </c>
       <c r="K74" s="12">
         <f>E78</f>
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="L74" s="12">
         <f>K74:K74*22</f>
-        <v>5368</v>
+        <v>5258</v>
       </c>
       <c r="M74" s="5"/>
       <c r="N74" s="6"/>
@@ -17425,7 +17435,7 @@
       </c>
       <c r="E75" s="9">
         <f>E18+E31+E43+E59</f>
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F75" s="9">
         <f>F18+F31+F43+F59</f>
@@ -17437,7 +17447,7 @@
       </c>
       <c r="H75" s="9">
         <f>SUM(B75:G75)</f>
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I75" s="4"/>
       <c r="J75" t="s" s="10">
@@ -17486,7 +17496,7 @@
       </c>
       <c r="D76" s="12">
         <f>D19+D32+D44+D60</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E76" s="12">
         <f>E19+E32+E44+E60</f>
@@ -17494,11 +17504,11 @@
       </c>
       <c r="F76" s="12">
         <f>F19+F32+F44+F60</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G76" s="12">
         <f>G19+G32+G44+G60</f>
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="H76" s="12">
         <f>SUM(B76:G76)</f>
@@ -17510,11 +17520,11 @@
       </c>
       <c r="K76" s="12">
         <f>G78</f>
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="L76" s="12">
         <f>K76:K76*15</f>
-        <v>2910</v>
+        <v>2805</v>
       </c>
       <c r="M76" s="5"/>
       <c r="N76" s="6"/>
@@ -17555,11 +17565,11 @@
       </c>
       <c r="E77" s="9">
         <f>E20+E33+E45+E61</f>
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F77" s="9">
         <f>F20+F33+F45+F61</f>
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G77" s="9">
         <f>G20+G33+G45+G61</f>
@@ -17567,7 +17577,7 @@
       </c>
       <c r="H77" s="9">
         <f>SUM(B77:G77)</f>
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I77" s="4"/>
       <c r="J77" t="s" s="17">
@@ -17575,11 +17585,11 @@
       </c>
       <c r="K77" s="9">
         <f>SUM(K71:K76)</f>
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="L77" s="16">
         <f>SUM(L71:L76)</f>
-        <v>13793</v>
+        <v>13808</v>
       </c>
       <c r="M77" s="5"/>
       <c r="N77" s="6"/>
@@ -17608,19 +17618,19 @@
       </c>
       <c r="B78" s="12">
         <f>SUM(B71:B77)</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C78" s="12">
         <f>SUM(C71:C77)</f>
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D78" s="12">
         <f>SUM(D71:D77)</f>
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="E78" s="12">
         <f>SUM(E71:E77)</f>
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="F78" s="12">
         <f>SUM(F71:F77)</f>
@@ -17628,11 +17638,11 @@
       </c>
       <c r="G78" s="12">
         <f>SUM(G71:G77)</f>
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="H78" s="12">
         <f>SUM(H71:H77)</f>
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="I78" s="5"/>
       <c r="J78" s="20"/>
@@ -17660,14 +17670,14 @@
       <c r="AF78" s="6"/>
     </row>
     <row r="79" ht="15.6" customHeight="1">
-      <c r="A79" s="30"/>
-      <c r="B79" s="30"/>
-      <c r="C79" s="30"/>
-      <c r="D79" s="30"/>
-      <c r="E79" s="30"/>
-      <c r="F79" s="30"/>
-      <c r="G79" s="30"/>
-      <c r="H79" s="30"/>
+      <c r="A79" s="31"/>
+      <c r="B79" s="31"/>
+      <c r="C79" s="31"/>
+      <c r="D79" s="31"/>
+      <c r="E79" s="31"/>
+      <c r="F79" s="31"/>
+      <c r="G79" s="31"/>
+      <c r="H79" s="31"/>
       <c r="I79" s="6"/>
       <c r="J79" s="6"/>
       <c r="K79" s="6"/>
@@ -17694,14 +17704,14 @@
       <c r="AF79" s="6"/>
     </row>
     <row r="80" ht="15.6" customHeight="1">
-      <c r="A80" s="31"/>
-      <c r="B80" s="31"/>
-      <c r="C80" s="31"/>
-      <c r="D80" s="31"/>
-      <c r="E80" s="31"/>
-      <c r="F80" s="31"/>
-      <c r="G80" s="31"/>
-      <c r="H80" s="31"/>
+      <c r="A80" s="32"/>
+      <c r="B80" s="32"/>
+      <c r="C80" s="32"/>
+      <c r="D80" s="32"/>
+      <c r="E80" s="32"/>
+      <c r="F80" s="32"/>
+      <c r="G80" s="32"/>
+      <c r="H80" s="32"/>
       <c r="I80" s="6"/>
       <c r="J80" s="6"/>
       <c r="K80" s="6"/>
@@ -17728,16 +17738,16 @@
       <c r="AF80" s="6"/>
     </row>
     <row r="81" ht="15.6" customHeight="1">
-      <c r="A81" t="s" s="33">
+      <c r="A81" t="s" s="34">
         <v>34</v>
       </c>
-      <c r="B81" s="34"/>
-      <c r="C81" s="34"/>
-      <c r="D81" s="34"/>
-      <c r="E81" s="34"/>
-      <c r="F81" s="34"/>
-      <c r="G81" s="34"/>
-      <c r="H81" s="34"/>
+      <c r="B81" s="35"/>
+      <c r="C81" s="35"/>
+      <c r="D81" s="35"/>
+      <c r="E81" s="35"/>
+      <c r="F81" s="35"/>
+      <c r="G81" s="35"/>
+      <c r="H81" s="35"/>
       <c r="I81" s="6"/>
       <c r="J81" s="22"/>
       <c r="K81" s="22"/>
@@ -17829,11 +17839,11 @@
       </c>
       <c r="C83" s="9">
         <f>C2+C14+C27+C39+C55</f>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D83" s="9">
         <f>D2+D14+D27+D39+D55</f>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E83" s="9">
         <f>E2+E14+E27+E39+E55</f>
@@ -17849,7 +17859,7 @@
       </c>
       <c r="H83" s="9">
         <f>SUM(B83:G83)</f>
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I83" s="4"/>
       <c r="J83" t="s" s="10">
@@ -17857,11 +17867,11 @@
       </c>
       <c r="K83" s="9">
         <f>B90</f>
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L83" s="9">
         <f>K83:K83*30</f>
-        <v>1620</v>
+        <v>1650</v>
       </c>
       <c r="M83" s="5"/>
       <c r="N83" s="6"/>
@@ -17890,7 +17900,7 @@
       </c>
       <c r="B84" s="12">
         <f>B3+B15+B28+B40+B56</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C84" s="12">
         <f>C3+C15+C28+C40+C56</f>
@@ -17902,7 +17912,7 @@
       </c>
       <c r="E84" s="12">
         <f>E3+E15+E28+E40+E56</f>
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F84" s="12">
         <f>F3+F15+F28+F40+F56</f>
@@ -17914,7 +17924,7 @@
       </c>
       <c r="H84" s="12">
         <f>SUM(B84:G84)</f>
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I84" s="4"/>
       <c r="J84" t="s" s="13">
@@ -17922,11 +17932,11 @@
       </c>
       <c r="K84" s="12">
         <f>C90</f>
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="L84" s="14">
         <f>K84:K84*20</f>
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="M84" s="5"/>
       <c r="N84" s="6"/>
@@ -17963,7 +17973,7 @@
       </c>
       <c r="D85" s="9">
         <f>D4+D16+D29+D41+D57</f>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E85" s="9">
         <f>E4+E16+E29+E41+E57</f>
@@ -17979,7 +17989,7 @@
       </c>
       <c r="H85" s="9">
         <f>SUM(B85:G85)</f>
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="I85" s="4"/>
       <c r="J85" t="s" s="10">
@@ -17987,11 +17997,11 @@
       </c>
       <c r="K85" s="9">
         <f>D90</f>
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="L85" s="16">
         <f>K85:K85*25</f>
-        <v>2325</v>
+        <v>2625</v>
       </c>
       <c r="M85" s="5"/>
       <c r="N85" s="6"/>
@@ -18040,11 +18050,11 @@
       </c>
       <c r="G86" s="12">
         <f>G5+G17+G30+G42+G58</f>
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H86" s="12">
         <f>SUM(B86:G86)</f>
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I86" s="4"/>
       <c r="J86" t="s" s="13">
@@ -18052,11 +18062,11 @@
       </c>
       <c r="K86" s="12">
         <f>E90</f>
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="L86" s="12">
         <f>K86:K86*22</f>
-        <v>5368</v>
+        <v>5258</v>
       </c>
       <c r="M86" s="5"/>
       <c r="N86" s="6"/>
@@ -18097,7 +18107,7 @@
       </c>
       <c r="E87" s="9">
         <f>E6+E18+E31+E43+E59</f>
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F87" s="9">
         <f>F6+F18+F31+F43+F59</f>
@@ -18109,7 +18119,7 @@
       </c>
       <c r="H87" s="9">
         <f>SUM(B87:G87)</f>
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I87" s="4"/>
       <c r="J87" t="s" s="10">
@@ -18158,7 +18168,7 @@
       </c>
       <c r="D88" s="12">
         <f>D7+D19+D32+D44+D60</f>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E88" s="12">
         <f>E7+E19+E32+E44+E60</f>
@@ -18166,11 +18176,11 @@
       </c>
       <c r="F88" s="12">
         <f>F7+F19+F32+F44+F60</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G88" s="12">
         <f>G7+G19+G32+G44+G60</f>
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H88" s="12">
         <f>SUM(B88:G88)</f>
@@ -18182,11 +18192,11 @@
       </c>
       <c r="K88" s="12">
         <f>G90</f>
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="L88" s="12">
         <f>K88:K88*15</f>
-        <v>3645</v>
+        <v>3540</v>
       </c>
       <c r="M88" s="5"/>
       <c r="N88" s="6"/>
@@ -18227,11 +18237,11 @@
       </c>
       <c r="E89" s="9">
         <f>E8+E20+E33+E45+E61</f>
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F89" s="9">
         <f>F8+F20+F33+F45+F61</f>
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G89" s="9">
         <f>G8+G20+G33+G45+G61</f>
@@ -18239,7 +18249,7 @@
       </c>
       <c r="H89" s="9">
         <f>SUM(B89:G89)</f>
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I89" s="4"/>
       <c r="J89" t="s" s="17">
@@ -18247,11 +18257,11 @@
       </c>
       <c r="K89" s="9">
         <f>SUM(K83:K88)</f>
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="L89" s="16">
         <f>SUM(L83:L88)</f>
-        <v>17418</v>
+        <v>17433</v>
       </c>
       <c r="M89" s="5"/>
       <c r="N89" s="6"/>
@@ -18280,19 +18290,19 @@
       </c>
       <c r="B90" s="12">
         <f>SUM(B83:B89)</f>
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C90" s="12">
         <f>SUM(C83:C89)</f>
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D90" s="12">
         <f>SUM(D83:D89)</f>
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="E90" s="12">
         <f>SUM(E83:E89)</f>
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="F90" s="12">
         <f>SUM(F83:F89)</f>
@@ -18300,11 +18310,11 @@
       </c>
       <c r="G90" s="12">
         <f>SUM(G83:G89)</f>
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="H90" s="12">
         <f>SUM(H83:H89)</f>
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="I90" s="5"/>
       <c r="J90" s="20"/>
